--- a/work/WangTable.xlsx
+++ b/work/WangTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\httk-dev\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\httk\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B94E5DB1-DE22-4DA5-8906-1A9EE880227A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D0BCC-AA14-48D9-9C67-7ECFB2A85BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="21600" windowHeight="10215"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="20265" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WangTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>Compound</t>
   </si>
@@ -239,12 +239,18 @@
   </si>
   <si>
     <t>DTXSID2026525</t>
+  </si>
+  <si>
+    <t>61% Negative</t>
+  </si>
+  <si>
+    <t>100% Negative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -788,22 +794,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0">
-  <autoFilter ref="A1:M20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0">
+  <autoFilter ref="A1:M20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Compound"/>
-    <tableColumn id="2" name="CAS" dataDxfId="0"/>
-    <tableColumn id="3" name="DTXSID"/>
-    <tableColumn id="4" name="logP"/>
-    <tableColumn id="5" name="Charge_726"/>
-    <tableColumn id="6" name="R.plasma.FtoM"/>
-    <tableColumn id="7" name="RMSE"/>
-    <tableColumn id="8" name="R.plasma.FtoM.upper"/>
-    <tableColumn id="9" name="Kbrain2pu"/>
-    <tableColumn id="10" name="fup"/>
-    <tableColumn id="11" name="R.brain.FtoM"/>
-    <tableColumn id="12" name="Kbrain2pu.upper"/>
-    <tableColumn id="13" name="R.brain.FtoM.upper"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Compound"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CAS" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DTXSID"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="logP"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Charge_726"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="R.plasma.FtoM"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="RMSE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="R.plasma.FtoM.upper"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Kbrain2pu"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="fup"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="R.brain.FtoM"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Kbrain2pu.upper"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="R.brain.FtoM.upper"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1105,11 +1111,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M20"/>
+      <selection activeCell="D2" sqref="D2:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,10 +1192,10 @@
         <v>1.42</v>
       </c>
       <c r="G2">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H2">
-        <v>2.15</v>
+        <v>2.36</v>
       </c>
       <c r="I2">
         <v>3530</v>
@@ -1198,13 +1204,13 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="K2">
-        <v>12.9</v>
+        <v>14.2</v>
       </c>
       <c r="L2">
-        <v>15700</v>
+        <v>65400</v>
       </c>
       <c r="M2">
-        <v>57.1</v>
+        <v>179.03916823950399</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1227,10 +1233,10 @@
         <v>1.43</v>
       </c>
       <c r="G3">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H3">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="I3">
         <v>240</v>
@@ -1239,13 +1245,13 @@
         <v>2.4299999999999999E-2</v>
       </c>
       <c r="K3">
-        <v>12.6</v>
+        <v>13.9</v>
       </c>
       <c r="L3">
-        <v>1070</v>
+        <v>4460</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>175.59549119922599</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1268,25 +1274,25 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="G4">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H4">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="I4">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="J4">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="K4">
-        <v>4.71</v>
+        <v>5.17</v>
       </c>
       <c r="L4">
-        <v>303</v>
+        <v>1270</v>
       </c>
       <c r="M4">
-        <v>20.9</v>
+        <v>65.462762143111803</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1309,25 +1315,25 @@
         <v>1.18</v>
       </c>
       <c r="G5">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H5">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="I5">
         <v>6.7</v>
       </c>
       <c r="J5">
-        <v>0.30399999999999999</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="K5">
-        <v>3.65</v>
+        <v>4.01</v>
       </c>
       <c r="L5">
-        <v>29.7</v>
+        <v>124</v>
       </c>
       <c r="M5">
-        <v>16.2</v>
+        <v>50.762087477871503</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1350,10 +1356,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="G6">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H6">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="I6">
         <v>6.85</v>
@@ -1362,13 +1368,13 @@
         <v>0.27</v>
       </c>
       <c r="K6">
-        <v>3.23</v>
+        <v>3.55</v>
       </c>
       <c r="L6">
-        <v>30.4</v>
+        <v>127</v>
       </c>
       <c r="M6">
-        <v>14.3</v>
+        <v>44.956078358990098</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1388,13 +1394,13 @@
         <v>16</v>
       </c>
       <c r="F7">
-        <v>0.90500000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="G7">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H7">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="I7">
         <v>46.1</v>
@@ -1403,13 +1409,13 @@
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="K7">
-        <v>2.4900000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="L7">
-        <v>205</v>
+        <v>854</v>
       </c>
       <c r="M7">
-        <v>11.1</v>
+        <v>34.648145709089199</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1429,13 +1435,13 @@
         <v>16</v>
       </c>
       <c r="F8">
-        <v>0.68899999999999995</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="G8">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H8">
-        <v>1.04</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I8">
         <v>1980</v>
@@ -1444,13 +1450,13 @@
         <v>8.8699999999999998E-4</v>
       </c>
       <c r="K8">
-        <v>1.83</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="L8">
-        <v>8780</v>
+        <v>36700</v>
       </c>
       <c r="M8">
-        <v>8.11</v>
+        <v>25.434332297609899</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1473,10 +1479,10 @@
         <v>0.68100000000000005</v>
       </c>
       <c r="G9">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H9">
-        <v>1.03</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I9">
         <v>1110</v>
@@ -1485,13 +1491,13 @@
         <v>1.5200000000000001E-3</v>
       </c>
       <c r="K9">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="L9">
-        <v>4940</v>
+        <v>20600</v>
       </c>
       <c r="M9">
-        <v>7.72</v>
+        <v>24.2274416389937</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1514,10 +1520,10 @@
         <v>1.01</v>
       </c>
       <c r="G10">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H10">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="I10">
         <v>1.18</v>
@@ -1526,13 +1532,13 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="K10">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
-        <v>5.23</v>
+        <v>21.8</v>
       </c>
       <c r="M10">
-        <v>7.27</v>
+        <v>22.8017725772505</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1555,10 +1561,10 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="G11">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H11">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="I11">
         <v>79.599999999999994</v>
@@ -1567,13 +1573,13 @@
         <v>1.66E-2</v>
       </c>
       <c r="K11">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="L11">
-        <v>353</v>
+        <v>1470</v>
       </c>
       <c r="M11">
-        <v>7.21</v>
+        <v>22.613827417508499</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1596,25 +1602,25 @@
         <v>0.82</v>
       </c>
       <c r="G12">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H12">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="I12">
         <v>4.72</v>
       </c>
       <c r="J12">
-        <v>0.27500000000000002</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="K12">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="L12">
-        <v>20.9</v>
+        <v>87.4</v>
       </c>
       <c r="M12">
-        <v>7.15</v>
+        <v>22.421426517727699</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1637,25 +1643,25 @@
         <v>0.92300000000000004</v>
       </c>
       <c r="G13">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H13">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="I13">
-        <v>7.15</v>
+        <v>7.14</v>
       </c>
       <c r="J13">
         <v>0.152</v>
       </c>
       <c r="K13">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="L13">
-        <v>31.7</v>
+        <v>132</v>
       </c>
       <c r="M13">
-        <v>6.73</v>
+        <v>21.085600314788199</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1669,34 +1675,34 @@
         <v>53</v>
       </c>
       <c r="D14">
-        <v>1.9119999999999999</v>
+        <v>1.958</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14">
-        <v>0.78300000000000003</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="G14">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H14">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="I14">
-        <v>5.91</v>
+        <v>8.06</v>
       </c>
       <c r="J14">
-        <v>0.13</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="K14">
-        <v>0.91</v>
+        <v>0.749</v>
       </c>
       <c r="L14">
-        <v>26.2</v>
+        <v>149</v>
       </c>
       <c r="M14">
-        <v>4.04</v>
+        <v>9.4805172633776493</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1710,34 +1716,34 @@
         <v>56</v>
       </c>
       <c r="D15">
-        <v>1.6719999999999999</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F15">
-        <v>0.69199999999999995</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="G15">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H15">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="I15">
-        <v>25.9</v>
+        <v>4.33</v>
       </c>
       <c r="J15">
-        <v>2.7E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="K15">
-        <v>0.73099999999999998</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="L15">
-        <v>115</v>
+        <v>80.3</v>
       </c>
       <c r="M15">
-        <v>3.24</v>
+        <v>9.2186416645228704</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1751,34 +1757,34 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>1.958</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F16">
-        <v>0.83</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="G16">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H16">
-        <v>1.26</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I16">
-        <v>8.24</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J16">
-        <v>6.7400000000000002E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="K16">
-        <v>0.69699999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L16">
-        <v>36.6</v>
+        <v>350</v>
       </c>
       <c r="M16">
-        <v>3.09</v>
+        <v>7.0926168283445996</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1801,10 +1807,10 @@
         <v>0.73</v>
       </c>
       <c r="G17">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H17">
-        <v>1.1000000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="I17">
         <v>7.36</v>
@@ -1813,13 +1819,13 @@
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="K17">
-        <v>0.217</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="L17">
-        <v>32.6</v>
+        <v>136</v>
       </c>
       <c r="M17">
-        <v>0.96399999999999997</v>
+        <v>3.0220999849979102</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1839,28 +1845,28 @@
         <v>66</v>
       </c>
       <c r="F18">
-        <v>0.628</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="G18">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H18">
-        <v>0.94899999999999995</v>
+        <v>1.05</v>
       </c>
       <c r="I18">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="J18">
         <v>5.7599999999999998E-2</v>
       </c>
       <c r="K18">
-        <v>0.187</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="L18">
-        <v>15.1</v>
+        <v>62.5</v>
       </c>
       <c r="M18">
-        <v>0.82699999999999996</v>
+        <v>2.57598440268373</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1880,28 +1886,28 @@
         <v>16</v>
       </c>
       <c r="F19">
-        <v>0.66700000000000004</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="G19">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H19">
-        <v>1.01</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I19">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J19">
         <v>7.6000000000000004E-4</v>
       </c>
       <c r="K19">
-        <v>0.18099999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="L19">
-        <v>1050</v>
+        <v>4360</v>
       </c>
       <c r="M19">
-        <v>0.80200000000000005</v>
+        <v>2.5130258775963701</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1924,10 +1930,10 @@
         <v>0.67</v>
       </c>
       <c r="G20">
-        <v>0.17299999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H20">
-        <v>1.01</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I20">
         <v>570</v>
@@ -1936,13 +1942,13 @@
         <v>1.15E-4</v>
       </c>
       <c r="K20">
-        <v>6.6199999999999995E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="L20">
-        <v>2530</v>
+        <v>10600</v>
       </c>
       <c r="M20">
-        <v>0.29399999999999998</v>
+        <v>0.92079847276530702</v>
       </c>
     </row>
   </sheetData>
